--- a/biology/Zoologie/Hyperlioceras/Hyperlioceras.xlsx
+++ b/biology/Zoologie/Hyperlioceras/Hyperlioceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperlioceras est un genre d'ammonites (mollusques céphalopodes marins éteints), de la famille des Graphoceratidae[1],[2] qui ont vécu pendant la série du Jurassique moyen durant les étages Aalénien et Bajocien[3], il y a environ 170 millions d'années.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperlioceras est un genre d'ammonites (mollusques céphalopodes marins éteints), de la famille des Graphoceratidae, qui ont vécu pendant la série du Jurassique moyen durant les étages Aalénien et Bajocien, il y a environ 170 millions d'années.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques espèces :
 Hyperlioceras desori Moesch
@@ -546,9 +560,11 @@
           <t>Biostratigraphie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hyperlioceras sont des fossiles stratigraphiques importants. La base de l'étage Bajocien (Point Stratotypique Mondial -PSM- du Bajocien) définie sur la côte portugaise à Cabo Mondego entre Lisbonne et Porto, est basée sur la première apparition de l'espèce d'ammonites Hyperlioceras mundum et d'autres ammonites associées : Hyperlioceras furcatum, Bratinsina aspera et Bratinsina elegantula[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hyperlioceras sont des fossiles stratigraphiques importants. La base de l'étage Bajocien (Point Stratotypique Mondial -PSM- du Bajocien) définie sur la côte portugaise à Cabo Mondego entre Lisbonne et Porto, est basée sur la première apparition de l'espèce d'ammonites Hyperlioceras mundum et d'autres ammonites associées : Hyperlioceras furcatum, Bratinsina aspera et Bratinsina elegantula.
 </t>
         </is>
       </c>
